--- a/tspi/ciclo-2/plan2-20106381.xlsx
+++ b/tspi/ciclo-2/plan2-20106381.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -269,16 +272,22 @@
   <si>
     <t>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</t>
   </si>
+  <si>
+    <t>Tutorial de ruby on rails</t>
+  </si>
+  <si>
+    <t>Reporte cierre del ciclo del Quality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -436,8 +445,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -506,11 +543,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -584,6 +626,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -618,6 +661,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,14 +837,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="7" customWidth="1"/>
@@ -812,7 +856,7 @@
     <col min="1014" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75">
+    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013" ht="38.25">
+    <row r="2" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>24</v>
       </c>
@@ -1885,7 +1929,7 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013" ht="38.25">
+    <row r="3" spans="1:1013" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>25</v>
       </c>
@@ -2922,7 +2966,7 @@
       <c r="ALX3" s="4"/>
       <c r="ALY3" s="4"/>
     </row>
-    <row r="4" spans="1:1013" ht="38.25">
+    <row r="4" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>26</v>
       </c>
@@ -3959,7 +4003,7 @@
       <c r="ALX4" s="4"/>
       <c r="ALY4" s="4"/>
     </row>
-    <row r="5" spans="1:1013" ht="25.5">
+    <row r="5" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>27</v>
       </c>
@@ -4994,7 +5038,7 @@
       <c r="ALX5" s="4"/>
       <c r="ALY5" s="4"/>
     </row>
-    <row r="6" spans="1:1013" ht="38.25">
+    <row r="6" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>28</v>
       </c>
@@ -6031,7 +6075,7 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013" ht="38.25">
+    <row r="7" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>29</v>
       </c>
@@ -7068,7 +7112,7 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013" ht="38.25">
+    <row r="8" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>30</v>
       </c>
@@ -8105,7 +8149,7 @@
       <c r="ALX8" s="4"/>
       <c r="ALY8" s="4"/>
     </row>
-    <row r="9" spans="1:1013" ht="25.5">
+    <row r="9" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>31</v>
       </c>
@@ -9140,7 +9184,7 @@
       <c r="ALX9" s="4"/>
       <c r="ALY9" s="4"/>
     </row>
-    <row r="10" spans="1:1013" ht="38.25">
+    <row r="10" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>32</v>
       </c>
@@ -10177,7 +10221,7 @@
       <c r="ALX10" s="4"/>
       <c r="ALY10" s="4"/>
     </row>
-    <row r="11" spans="1:1013" ht="38.25">
+    <row r="11" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>33</v>
       </c>
@@ -11214,7 +11258,7 @@
       <c r="ALX11" s="4"/>
       <c r="ALY11" s="4"/>
     </row>
-    <row r="12" spans="1:1013" ht="51">
+    <row r="12" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>34</v>
       </c>
@@ -12251,7 +12295,7 @@
       <c r="ALX12" s="4"/>
       <c r="ALY12" s="4"/>
     </row>
-    <row r="13" spans="1:1013" ht="38.25">
+    <row r="13" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>35</v>
       </c>
@@ -13288,7 +13332,7 @@
       <c r="ALX13" s="4"/>
       <c r="ALY13" s="4"/>
     </row>
-    <row r="14" spans="1:1013" ht="38.25">
+    <row r="14" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>36</v>
       </c>
@@ -14325,7 +14369,7 @@
       <c r="ALX14" s="4"/>
       <c r="ALY14" s="4"/>
     </row>
-    <row r="15" spans="1:1013" ht="38.25">
+    <row r="15" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>37</v>
       </c>
@@ -15362,7 +15406,7 @@
       <c r="ALX15" s="4"/>
       <c r="ALY15" s="4"/>
     </row>
-    <row r="16" spans="1:1013" ht="38.25">
+    <row r="16" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>38</v>
       </c>
@@ -16399,7 +16443,7 @@
       <c r="ALX16" s="4"/>
       <c r="ALY16" s="4"/>
     </row>
-    <row r="17" spans="1:1013" ht="38.25">
+    <row r="17" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>39</v>
       </c>
@@ -17436,7 +17480,7 @@
       <c r="ALX17" s="4"/>
       <c r="ALY17" s="4"/>
     </row>
-    <row r="18" spans="1:1013" ht="38.25">
+    <row r="18" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>40</v>
       </c>
@@ -17471,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1013" ht="25.5">
+    <row r="19" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>41</v>
       </c>
@@ -17504,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1013" ht="25.5">
+    <row r="20" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>42</v>
       </c>
@@ -17537,7 +17581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1013" ht="51">
+    <row r="21" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>43</v>
       </c>
@@ -17572,7 +17616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1013" ht="38.25">
+    <row r="22" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>44</v>
       </c>
@@ -17607,7 +17651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1013" ht="38.25">
+    <row r="23" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>45</v>
       </c>
@@ -17653,14 +17697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.140625" style="5"/>
@@ -17668,7 +17712,7 @@
     <col min="1025" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17679,7 +17723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>24</v>
       </c>
@@ -17691,31 +17735,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>25</v>
       </c>
       <c r="B3" s="4">
         <f>SUMIF(logt!$G:$G,A3,logt!$F:$F)/60</f>
-        <v>0.91666666666666663</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="C3" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>27</v>
       </c>
       <c r="B4" s="4">
         <f>SUMIF(logt!$G:$G,A4,logt!$F:$F)/60</f>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1">
+    <row r="5" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>28</v>
       </c>
@@ -17727,7 +17771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>30</v>
       </c>
@@ -17739,43 +17783,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>32</v>
       </c>
       <c r="B7" s="4">
         <f>SUMIF(logt!$G:$G,A7,logt!$F:$F)/60</f>
-        <v>0.6333333333333333</v>
+        <v>1.5333333333333334</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1">
+    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>33</v>
       </c>
       <c r="B8" s="4">
         <f>SUMIF(logt!$G:$G,A8,logt!$F:$F)/60</f>
-        <v>0.58333333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C8" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>34</v>
       </c>
       <c r="B9" s="4">
         <f>SUMIF(logt!$G:$G,A9,logt!$F:$F)/60</f>
-        <v>0.3</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>41</v>
       </c>
@@ -17787,37 +17831,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -17833,14 +17877,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="27" customWidth="1"/>
@@ -17852,7 +17896,7 @@
     <col min="9" max="16384" width="11.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
@@ -17878,7 +17922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>41924</v>
       </c>
@@ -17905,7 +17949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>41924</v>
       </c>
@@ -17916,14 +17960,14 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="D3" s="17">
-        <v>0.67708333333333337</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="E3" s="27">
         <v>0</v>
       </c>
       <c r="F3" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>((HOUR(D3)-HOUR(C3))*60)+(MINUTE(D3)-MINUTE(C3))-E3</f>
+        <v>35</v>
       </c>
       <c r="G3" s="4">
         <v>25</v>
@@ -17932,7 +17976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.5">
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>41930</v>
       </c>
@@ -17959,7 +18003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1">
+    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>41931</v>
       </c>
@@ -17986,7 +18030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>41932</v>
       </c>
@@ -18013,7 +18057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="25.5">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>41932</v>
       </c>
@@ -18037,7 +18081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>41933</v>
       </c>
@@ -18064,7 +18108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>41933</v>
       </c>
@@ -18072,17 +18116,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="23">
-        <v>0.35416666666666669</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="D9" s="23">
-        <v>0.37152777777777773</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="E9" s="30">
         <v>0</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4">
         <v>27</v>
@@ -18091,7 +18135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>41933</v>
       </c>
@@ -18099,7 +18143,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="23">
-        <v>0.37152777777777773</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="D10" s="23">
         <v>0.40277777777777773</v>
@@ -18109,7 +18153,7 @@
       </c>
       <c r="F10" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G10" s="4">
         <v>33</v>
@@ -18118,7 +18162,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>41933</v>
       </c>
@@ -18129,14 +18173,14 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="D11" s="23">
-        <v>0.41666666666666669</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="E11" s="30">
         <v>2</v>
       </c>
       <c r="F11" s="16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G11" s="4">
         <v>34</v>
@@ -18145,7 +18189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>41934</v>
       </c>
@@ -18153,23 +18197,23 @@
         <v>5</v>
       </c>
       <c r="C12" s="23">
-        <v>0.41666666666666669</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="D12" s="23">
-        <v>0.4375</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="E12" s="30">
         <v>0</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>41934</v>
       </c>
@@ -18196,36 +18240,82 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="22"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="24"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>41938</v>
+      </c>
+      <c r="B14" s="27">
+        <v>5</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.78125</v>
+      </c>
+      <c r="E14" s="30">
+        <v>50</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" ref="F14" si="1">((HOUR(D14)-HOUR(C14))*60)+(MINUTE(D14)-MINUTE(C14))-E14</f>
+        <v>175</v>
+      </c>
+      <c r="G14" s="4">
+        <v>31</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="22"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="24"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>41939</v>
+      </c>
+      <c r="B15" s="27">
+        <v>5</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.40625</v>
+      </c>
+      <c r="E15" s="30">
+        <v>51</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" ref="F15" si="2">((HOUR(D15)-HOUR(C15))*60)+(MINUTE(D15)-MINUTE(C15))-E15</f>
+        <v>54</v>
+      </c>
+      <c r="G15" s="4">
+        <v>32</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="F17" s="16"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="16"/>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+    <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="28"/>
       <c r="C19" s="23"/>
@@ -18233,7 +18323,7 @@
       <c r="E19" s="30"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="28"/>
       <c r="C20" s="23"/>
@@ -18241,7 +18331,7 @@
       <c r="E20" s="30"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="28"/>
       <c r="C21" s="23"/>
@@ -18249,7 +18339,7 @@
       <c r="E21" s="30"/>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
       <c r="B22" s="28"/>
       <c r="C22" s="23"/>
@@ -18257,7 +18347,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="28"/>
       <c r="C23" s="23"/>
@@ -18265,7 +18355,7 @@
       <c r="E23" s="30"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
       <c r="B24" s="28"/>
       <c r="C24" s="23"/>
@@ -18273,7 +18363,7 @@
       <c r="E24" s="30"/>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
       <c r="B25" s="28"/>
       <c r="C25" s="23"/>
@@ -18281,7 +18371,7 @@
       <c r="E25" s="30"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
       <c r="B26" s="28"/>
       <c r="C26" s="23"/>
@@ -18289,7 +18379,7 @@
       <c r="E26" s="30"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27" s="28"/>
       <c r="C27" s="23"/>
@@ -18297,7 +18387,7 @@
       <c r="E27" s="30"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="28"/>
       <c r="C28" s="23"/>
@@ -18305,7 +18395,7 @@
       <c r="E28" s="30"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="28"/>
       <c r="C29" s="23"/>
@@ -18313,7 +18403,7 @@
       <c r="E29" s="30"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="28"/>
       <c r="C30" s="23"/>
@@ -18321,7 +18411,7 @@
       <c r="E30" s="30"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="28"/>
       <c r="C31" s="23"/>
@@ -18329,7 +18419,7 @@
       <c r="E31" s="30"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="28"/>
       <c r="C32" s="23"/>
@@ -18337,7 +18427,7 @@
       <c r="E32" s="30"/>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="28"/>
       <c r="C33" s="23"/>
@@ -18345,16 +18435,8 @@
       <c r="E33" s="30"/>
       <c r="F33" s="24"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="F36" s="16"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/tspi/ciclo-2/plan2-20106381.xlsx
+++ b/tspi/ciclo-2/plan2-20106381.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -282,12 +282,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -441,6 +441,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +553,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -626,7 +627,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -661,7 +661,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -837,14 +836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="7" customWidth="1"/>
@@ -856,7 +855,7 @@
     <col min="1014" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1013" ht="38.25">
       <c r="A2" s="8">
         <v>24</v>
       </c>
@@ -1929,7 +1928,7 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1013" ht="63.75">
       <c r="A3" s="8">
         <v>25</v>
       </c>
@@ -2966,7 +2965,7 @@
       <c r="ALX3" s="4"/>
       <c r="ALY3" s="4"/>
     </row>
-    <row r="4" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1013" ht="38.25">
       <c r="A4" s="8">
         <v>26</v>
       </c>
@@ -4003,7 +4002,7 @@
       <c r="ALX4" s="4"/>
       <c r="ALY4" s="4"/>
     </row>
-    <row r="5" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1013" ht="25.5">
       <c r="A5" s="8">
         <v>27</v>
       </c>
@@ -5038,7 +5037,7 @@
       <c r="ALX5" s="4"/>
       <c r="ALY5" s="4"/>
     </row>
-    <row r="6" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1013" ht="51">
       <c r="A6" s="8">
         <v>28</v>
       </c>
@@ -6075,7 +6074,7 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1013" ht="25.5">
       <c r="A7" s="8">
         <v>29</v>
       </c>
@@ -7112,7 +7111,7 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1013" ht="25.5">
       <c r="A8" s="8">
         <v>30</v>
       </c>
@@ -8149,7 +8148,7 @@
       <c r="ALX8" s="4"/>
       <c r="ALY8" s="4"/>
     </row>
-    <row r="9" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1013" ht="25.5">
       <c r="A9" s="8">
         <v>31</v>
       </c>
@@ -9184,7 +9183,7 @@
       <c r="ALX9" s="4"/>
       <c r="ALY9" s="4"/>
     </row>
-    <row r="10" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1013" ht="25.5">
       <c r="A10" s="8">
         <v>32</v>
       </c>
@@ -10221,7 +10220,7 @@
       <c r="ALX10" s="4"/>
       <c r="ALY10" s="4"/>
     </row>
-    <row r="11" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1013" ht="38.25">
       <c r="A11" s="8">
         <v>33</v>
       </c>
@@ -11258,7 +11257,7 @@
       <c r="ALX11" s="4"/>
       <c r="ALY11" s="4"/>
     </row>
-    <row r="12" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1013" ht="51">
       <c r="A12" s="8">
         <v>34</v>
       </c>
@@ -12295,7 +12294,7 @@
       <c r="ALX12" s="4"/>
       <c r="ALY12" s="4"/>
     </row>
-    <row r="13" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1013" ht="38.25">
       <c r="A13" s="8">
         <v>35</v>
       </c>
@@ -13332,7 +13331,7 @@
       <c r="ALX13" s="4"/>
       <c r="ALY13" s="4"/>
     </row>
-    <row r="14" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1013" ht="38.25">
       <c r="A14" s="8">
         <v>36</v>
       </c>
@@ -14369,7 +14368,7 @@
       <c r="ALX14" s="4"/>
       <c r="ALY14" s="4"/>
     </row>
-    <row r="15" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1013" ht="38.25">
       <c r="A15" s="8">
         <v>37</v>
       </c>
@@ -15406,7 +15405,7 @@
       <c r="ALX15" s="4"/>
       <c r="ALY15" s="4"/>
     </row>
-    <row r="16" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1013" ht="38.25">
       <c r="A16" s="8">
         <v>38</v>
       </c>
@@ -16443,7 +16442,7 @@
       <c r="ALX16" s="4"/>
       <c r="ALY16" s="4"/>
     </row>
-    <row r="17" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1013" ht="38.25">
       <c r="A17" s="8">
         <v>39</v>
       </c>
@@ -17480,7 +17479,7 @@
       <c r="ALX17" s="4"/>
       <c r="ALY17" s="4"/>
     </row>
-    <row r="18" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1013" ht="25.5">
       <c r="A18" s="8">
         <v>40</v>
       </c>
@@ -17515,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1013" ht="25.5">
       <c r="A19" s="8">
         <v>41</v>
       </c>
@@ -17548,7 +17547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1013" ht="25.5">
       <c r="A20" s="8">
         <v>42</v>
       </c>
@@ -17581,7 +17580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1013" ht="51">
       <c r="A21" s="8">
         <v>43</v>
       </c>
@@ -17616,7 +17615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1013" ht="25.5">
       <c r="A22" s="8">
         <v>44</v>
       </c>
@@ -17651,7 +17650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1013" ht="51">
       <c r="A23" s="8">
         <v>45</v>
       </c>
@@ -17697,14 +17696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.140625" style="5"/>
@@ -17712,7 +17711,7 @@
     <col min="1025" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17723,7 +17722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>24</v>
       </c>
@@ -17735,7 +17734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>25</v>
       </c>
@@ -17747,7 +17746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>27</v>
       </c>
@@ -17759,7 +17758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="12" customFormat="1">
       <c r="A5" s="31">
         <v>28</v>
       </c>
@@ -17771,7 +17770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>30</v>
       </c>
@@ -17783,7 +17782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4">
         <v>32</v>
       </c>
@@ -17795,7 +17794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="12" customFormat="1">
       <c r="A8" s="31">
         <v>33</v>
       </c>
@@ -17807,7 +17806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>34</v>
       </c>
@@ -17819,7 +17818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="4">
         <v>41</v>
       </c>
@@ -17831,37 +17830,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -17877,14 +17876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="27" customWidth="1"/>
@@ -17896,7 +17895,7 @@
     <col min="9" max="16384" width="11.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="13" customFormat="1" ht="28.5">
       <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
@@ -17922,7 +17921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="14">
         <v>41924</v>
       </c>
@@ -17948,8 +17947,12 @@
       <c r="H2" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="J2" s="32">
+        <f>SUM(F2:F6)/60</f>
+        <v>4.55</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="14">
         <v>41924</v>
       </c>
@@ -17976,7 +17979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" s="14">
         <v>41930</v>
       </c>
@@ -18003,7 +18006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="12" customFormat="1">
       <c r="A5" s="19">
         <v>41931</v>
       </c>
@@ -18030,7 +18033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="22">
         <v>41932</v>
       </c>
@@ -18057,7 +18060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" s="22">
         <v>41932</v>
       </c>
@@ -18081,7 +18084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="22">
         <v>41933</v>
       </c>
@@ -18108,7 +18111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="22">
         <v>41933</v>
       </c>
@@ -18135,7 +18138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="22">
         <v>41933</v>
       </c>
@@ -18162,7 +18165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="22">
         <v>41933</v>
       </c>
@@ -18189,7 +18192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="22">
         <v>41934</v>
       </c>
@@ -18213,7 +18216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="22">
         <v>41934</v>
       </c>
@@ -18240,7 +18243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="22">
         <v>41938</v>
       </c>
@@ -18260,14 +18263,11 @@
         <f t="shared" ref="F14" si="1">((HOUR(D14)-HOUR(C14))*60)+(MINUTE(D14)-MINUTE(C14))-E14</f>
         <v>175</v>
       </c>
-      <c r="G14" s="4">
-        <v>31</v>
-      </c>
       <c r="H14" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="22">
         <v>41939</v>
       </c>
@@ -18294,10 +18294,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="12" customFormat="1">
       <c r="A17" s="19"/>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
@@ -18307,7 +18307,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="22"/>
       <c r="B18" s="28"/>
       <c r="C18" s="23"/>
@@ -18315,7 +18315,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="22"/>
       <c r="B19" s="28"/>
       <c r="C19" s="23"/>
@@ -18323,7 +18323,7 @@
       <c r="E19" s="30"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="22"/>
       <c r="B20" s="28"/>
       <c r="C20" s="23"/>
@@ -18331,7 +18331,7 @@
       <c r="E20" s="30"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="22"/>
       <c r="B21" s="28"/>
       <c r="C21" s="23"/>
@@ -18339,7 +18339,7 @@
       <c r="E21" s="30"/>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="22"/>
       <c r="B22" s="28"/>
       <c r="C22" s="23"/>
@@ -18347,7 +18347,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="22"/>
       <c r="B23" s="28"/>
       <c r="C23" s="23"/>
@@ -18355,7 +18355,7 @@
       <c r="E23" s="30"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="22"/>
       <c r="B24" s="28"/>
       <c r="C24" s="23"/>
@@ -18363,7 +18363,7 @@
       <c r="E24" s="30"/>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="22"/>
       <c r="B25" s="28"/>
       <c r="C25" s="23"/>
@@ -18371,7 +18371,7 @@
       <c r="E25" s="30"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="22"/>
       <c r="B26" s="28"/>
       <c r="C26" s="23"/>
@@ -18379,7 +18379,7 @@
       <c r="E26" s="30"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="22"/>
       <c r="B27" s="28"/>
       <c r="C27" s="23"/>
@@ -18387,7 +18387,7 @@
       <c r="E27" s="30"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="22"/>
       <c r="B28" s="28"/>
       <c r="C28" s="23"/>
@@ -18395,7 +18395,7 @@
       <c r="E28" s="30"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="22"/>
       <c r="B29" s="28"/>
       <c r="C29" s="23"/>
@@ -18403,7 +18403,7 @@
       <c r="E29" s="30"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="22"/>
       <c r="B30" s="28"/>
       <c r="C30" s="23"/>
@@ -18411,7 +18411,7 @@
       <c r="E30" s="30"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="22"/>
       <c r="B31" s="28"/>
       <c r="C31" s="23"/>
@@ -18419,7 +18419,7 @@
       <c r="E31" s="30"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="22"/>
       <c r="B32" s="28"/>
       <c r="C32" s="23"/>
@@ -18427,7 +18427,7 @@
       <c r="E32" s="30"/>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="22"/>
       <c r="B33" s="28"/>
       <c r="C33" s="23"/>
@@ -18435,7 +18435,7 @@
       <c r="E33" s="30"/>
       <c r="F33" s="24"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="F35" s="16"/>
     </row>
   </sheetData>
